--- a/biology/Origine et évolution du vivant/Le_Fleuve_de_la_vie/Le_Fleuve_de_la_vie.xlsx
+++ b/biology/Origine et évolution du vivant/Le_Fleuve_de_la_vie/Le_Fleuve_de_la_vie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Fleuve de la vie (titre original : River Out of Eden: A Darwinian View of Life) est un livre de vulgarisation scientifique publié en 1995 par Richard Dawkins.
 Le livre traite de l'évolution selon Charles Darwin et inclut des chapitres sur des sujets traités dans ses précédents ouvrages, parmi lesquels Le Gène égoïste (The Selfish Gene), The Extended Phenotype et L'Horloger aveugle (The Blind Watchmaker).
@@ -512,7 +524,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le livre le plus court de Richard Dawkins, illustré par sa femme Lalla Ward. Le titre du livre est dérivé du passage 2:10 de la Genèse dans lequel est cité le jardin d'Éden.
 Le Fleuve de la vie contient cinq chapitres. Le premier chapitre plante le décor pour le reste du livre, en comparant la vie à une rivière de gènes coulant au travers des temps géologiques dans lesquels les organismes sont des corps passagers.
